--- a/OpenTB2.xlsx
+++ b/OpenTB2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Cuts and Swelling" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Cards" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Referees" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Standard Referees" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Cut Men" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Trainers" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Standard Corner Men" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="KD-KO Table" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Heavyweights" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Welterweights" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Cuts and Swelling" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Cards" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Referees" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Standard Referees" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Cut Men" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Trainers" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Standard Corner Men" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="KD-KO Table" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Heavyweights" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Welterweights" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -373,10 +373,10 @@
     <t xml:space="preserve">Randy Neumann</t>
   </si>
   <si>
-    <t xml:space="preserve">John O’Brien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terry O’Connor</t>
+    <t xml:space="preserve">John O'Brien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terry O'Connor</t>
   </si>
   <si>
     <t xml:space="preserve">Carlos Padilla</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">Pepe Correa</t>
   </si>
   <si>
-    <t xml:space="preserve">Cus D’Amato</t>
+    <t xml:space="preserve">Cus D'Amato</t>
   </si>
   <si>
     <t xml:space="preserve">Jimmy DeForrest</t>
@@ -1057,7 +1057,7 @@
     <t xml:space="preserve">Joe Frazier</t>
   </si>
   <si>
-    <t xml:space="preserve">Smokin’</t>
+    <t xml:space="preserve">Smokin'</t>
   </si>
   <si>
     <t xml:space="preserve">Tony Galento</t>
@@ -1537,7 +1537,7 @@
     <t xml:space="preserve">Grand Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Freddie “Red” Cochrane</t>
+    <t xml:space="preserve">Freddie "Red" Cochrane</t>
   </si>
   <si>
     <t xml:space="preserve">Red</t>
@@ -1573,7 +1573,7 @@
     <t xml:space="preserve">Superman</t>
   </si>
   <si>
-    <t xml:space="preserve">Al “Bummy” Davis</t>
+    <t xml:space="preserve">Al "Bummy" Davis</t>
   </si>
   <si>
     <t xml:space="preserve">Bummy</t>
@@ -1651,7 +1651,7 @@
     <t xml:space="preserve">Billy Graham</t>
   </si>
   <si>
-    <t xml:space="preserve">Davey “Boy” Green</t>
+    <t xml:space="preserve">Davey "Boy" Green</t>
   </si>
   <si>
     <t xml:space="preserve">The Fenland Tiger</t>
@@ -1729,7 +1729,7 @@
     <t xml:space="preserve">Hedgemon Lewis</t>
   </si>
   <si>
-    <t xml:space="preserve">Ted “Kid” Lewis</t>
+    <t xml:space="preserve">Ted "Kid" Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">The Aldgate Sphinx</t>
@@ -1741,7 +1741,7 @@
     <t xml:space="preserve">Duilio Loi</t>
   </si>
   <si>
-    <t xml:space="preserve">Ernie “Indian Red” Lopez</t>
+    <t xml:space="preserve">Ernie "Indian Red" Lopez</t>
   </si>
   <si>
     <t xml:space="preserve">Indian Red</t>
@@ -2003,7 +2003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2024,11 +2024,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2073,7 +2068,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2083,10 +2078,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2100,6 +2091,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2899,11 +2996,11 @@
   <dimension ref="A1:AY114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25958,7 +26055,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27391,7 +27488,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28639,7 +28736,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
@@ -28647,10 +28744,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="10.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="10.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28677,117 +28774,117 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>80</v>
       </c>
     </row>
@@ -29636,12 +29733,12 @@
   </sheetPr>
   <dimension ref="A1:AY104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="A64" activeCellId="0" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
